--- a/教會財產盤點_依空間整理.xlsx
+++ b/教會財產盤點_依空間整理.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\信仰\資訊股業務\教會財產盤點\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FBBEF7B-748A-4E5D-9306-43CAE9F75E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="清單" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="590">
   <si>
     <t>編號</t>
   </si>
@@ -1781,17 +1787,21 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1799,8 +1809,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1846,17 +1863,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1894,7 +1919,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1928,6 +1953,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1962,9 +1988,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2137,20 +2164,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="D329" sqref="D329"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.046875" customWidth="1"/>
+    <col min="4" max="4" width="26.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2175,7 +2204,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2215,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2197,7 +2226,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2208,7 +2237,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2219,7 +2248,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2230,7 +2259,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2241,7 +2270,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2252,7 +2281,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2263,7 +2292,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2274,7 +2303,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2285,7 +2314,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2296,7 +2325,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2307,7 +2336,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2318,7 +2347,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2329,7 +2358,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2340,7 +2369,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2351,7 +2380,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2362,7 +2391,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2373,7 +2402,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2384,7 +2413,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2395,7 +2424,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2406,7 +2435,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2417,7 +2446,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2428,7 +2457,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2439,7 +2468,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2450,7 +2479,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2461,7 +2490,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2472,7 +2501,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2483,7 +2512,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2494,7 +2523,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2505,7 +2534,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2516,7 +2545,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2527,7 +2556,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2538,7 +2567,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2549,7 +2578,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2560,7 +2589,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2571,7 +2600,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2582,7 +2611,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2593,7 +2622,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2604,7 +2633,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2615,7 +2644,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2626,7 +2655,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2637,7 +2666,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2648,7 +2677,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2659,7 +2688,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2670,7 +2699,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2681,7 +2710,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2692,7 +2721,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2703,7 +2732,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2714,7 +2743,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2728,7 +2757,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2742,7 +2771,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2753,7 +2782,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2764,7 +2793,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2775,7 +2804,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2786,7 +2815,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2797,7 +2826,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2808,7 +2837,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2819,7 +2848,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2830,7 +2859,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2841,7 +2870,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2852,7 +2881,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2863,7 +2892,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2874,7 +2903,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2885,7 +2914,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2896,7 +2925,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2907,7 +2936,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2918,7 +2947,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -2929,7 +2958,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2940,7 +2969,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -2951,7 +2980,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2962,7 +2991,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2973,7 +3002,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -2984,7 +3013,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -2995,7 +3024,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -3006,7 +3035,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -3017,7 +3046,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -3028,7 +3057,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -3039,7 +3068,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -3050,7 +3079,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -3061,7 +3090,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -3072,7 +3101,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -3083,7 +3112,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -3094,7 +3123,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -3108,7 +3137,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -3122,7 +3151,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -3133,7 +3162,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -3144,7 +3173,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -3155,7 +3184,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -3166,7 +3195,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -3177,7 +3206,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -3188,7 +3217,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -3199,7 +3228,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -3210,7 +3239,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -3221,7 +3250,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -3232,7 +3261,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -3243,7 +3272,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -3254,7 +3283,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -3265,7 +3294,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -3276,7 +3305,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -3287,7 +3316,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -3298,7 +3327,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -3309,7 +3338,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -3320,7 +3349,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -3331,7 +3360,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -3342,7 +3371,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -3353,7 +3382,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -3364,7 +3393,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -3375,7 +3404,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3386,7 +3415,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -3397,7 +3426,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -3408,7 +3437,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -3422,7 +3451,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -3433,7 +3462,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -3444,7 +3473,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -3455,7 +3484,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -3466,7 +3495,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3477,7 +3506,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -3488,7 +3517,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -3499,7 +3528,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -3510,7 +3539,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -3521,7 +3550,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -3535,7 +3564,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -3549,7 +3578,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -3560,7 +3589,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -3571,7 +3600,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -3582,7 +3611,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -3593,7 +3622,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -3604,7 +3633,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3615,7 +3644,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -3626,7 +3655,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -3637,7 +3666,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -3648,7 +3677,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -3659,7 +3688,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -3670,7 +3699,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -3681,7 +3710,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -3692,7 +3721,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3703,7 +3732,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3714,7 +3743,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -3725,7 +3754,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -3736,7 +3765,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -3747,7 +3776,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -3758,7 +3787,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -3769,7 +3798,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -3780,7 +3809,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -3791,7 +3820,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -3802,7 +3831,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -3813,7 +3842,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -3824,7 +3853,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -3835,7 +3864,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -3846,7 +3875,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -3857,7 +3886,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -3868,7 +3897,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -3879,7 +3908,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -3893,7 +3922,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -3904,7 +3933,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -3915,7 +3944,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -3926,7 +3955,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -3937,7 +3966,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -3948,7 +3977,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -3959,7 +3988,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -3970,7 +3999,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -3981,7 +4010,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -3992,7 +4021,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -4003,7 +4032,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -4014,7 +4043,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -4025,7 +4054,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -4036,7 +4065,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -4047,7 +4076,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -4058,7 +4087,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -4069,7 +4098,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -4080,7 +4109,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -4091,7 +4120,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -4102,7 +4131,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -4113,7 +4142,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -4124,7 +4153,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -4135,7 +4164,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -4146,7 +4175,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -4157,7 +4186,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -4168,7 +4197,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -4179,7 +4208,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -4190,7 +4219,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -4201,7 +4230,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -4212,7 +4241,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -4223,7 +4252,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -4234,7 +4263,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -4245,7 +4274,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -4256,7 +4285,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -4267,7 +4296,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -4278,7 +4307,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -4289,7 +4318,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -4300,7 +4329,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -4311,7 +4340,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -4322,7 +4351,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -4333,7 +4362,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -4344,7 +4373,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -4355,7 +4384,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -4366,7 +4395,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -4377,7 +4406,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -4388,7 +4417,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -4399,7 +4428,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -4410,7 +4439,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -4421,7 +4450,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -4432,7 +4461,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -4443,7 +4472,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -4454,7 +4483,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -4465,7 +4494,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -4476,7 +4505,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -4487,7 +4516,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -4498,7 +4527,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -4509,7 +4538,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -4520,7 +4549,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -4531,7 +4560,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -4542,7 +4571,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -4553,7 +4582,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -4564,7 +4593,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -4575,7 +4604,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -4586,7 +4615,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -4597,7 +4626,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -4608,7 +4637,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -4619,7 +4648,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -4630,7 +4659,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -4641,7 +4670,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -4652,7 +4681,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -4663,7 +4692,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -4674,7 +4703,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -4685,7 +4714,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A229" t="s">
         <v>231</v>
       </c>
@@ -4696,7 +4725,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -4707,7 +4736,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A231" t="s">
         <v>233</v>
       </c>
@@ -4718,7 +4747,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A232" t="s">
         <v>234</v>
       </c>
@@ -4729,7 +4758,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -4740,7 +4769,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -4751,7 +4780,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A235" t="s">
         <v>237</v>
       </c>
@@ -4762,7 +4791,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A236" t="s">
         <v>238</v>
       </c>
@@ -4773,7 +4802,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -4784,7 +4813,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -4795,7 +4824,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A239" t="s">
         <v>241</v>
       </c>
@@ -4806,7 +4835,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A240" t="s">
         <v>242</v>
       </c>
@@ -4817,7 +4846,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A241" t="s">
         <v>243</v>
       </c>
@@ -4828,7 +4857,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A242" t="s">
         <v>244</v>
       </c>
@@ -4839,7 +4868,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A243" t="s">
         <v>245</v>
       </c>
@@ -4850,7 +4879,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A244" t="s">
         <v>246</v>
       </c>
@@ -4861,7 +4890,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A245" t="s">
         <v>247</v>
       </c>
@@ -4872,7 +4901,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A246" t="s">
         <v>248</v>
       </c>
@@ -4883,7 +4912,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -4894,7 +4923,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A248" t="s">
         <v>250</v>
       </c>
@@ -4905,7 +4934,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -4916,7 +4945,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -4927,7 +4956,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A251" t="s">
         <v>253</v>
       </c>
@@ -4938,7 +4967,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -4949,7 +4978,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A253" t="s">
         <v>255</v>
       </c>
@@ -4960,7 +4989,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -4971,7 +5000,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A255" t="s">
         <v>257</v>
       </c>
@@ -4982,7 +5011,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -4993,7 +5022,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A257" t="s">
         <v>259</v>
       </c>
@@ -5004,7 +5033,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A258" t="s">
         <v>260</v>
       </c>
@@ -5015,7 +5044,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A259" t="s">
         <v>261</v>
       </c>
@@ -5026,7 +5055,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A260" t="s">
         <v>262</v>
       </c>
@@ -5037,7 +5066,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -5048,7 +5077,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -5059,7 +5088,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A263" t="s">
         <v>265</v>
       </c>
@@ -5070,7 +5099,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -5081,7 +5110,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A265" t="s">
         <v>267</v>
       </c>
@@ -5092,7 +5121,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A266" t="s">
         <v>268</v>
       </c>
@@ -5103,7 +5132,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A267" t="s">
         <v>269</v>
       </c>
@@ -5114,7 +5143,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -5125,7 +5154,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A269" t="s">
         <v>271</v>
       </c>
@@ -5136,7 +5165,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A270" t="s">
         <v>272</v>
       </c>
@@ -5147,7 +5176,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A271" t="s">
         <v>273</v>
       </c>
@@ -5158,7 +5187,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A272" t="s">
         <v>274</v>
       </c>
@@ -5169,7 +5198,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A273" t="s">
         <v>275</v>
       </c>
@@ -5180,7 +5209,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A274" t="s">
         <v>276</v>
       </c>
@@ -5191,7 +5220,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A275" t="s">
         <v>277</v>
       </c>
@@ -5202,7 +5231,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -5213,7 +5242,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A277" t="s">
         <v>279</v>
       </c>
@@ -5224,7 +5253,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A278" t="s">
         <v>280</v>
       </c>
@@ -5235,7 +5264,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A279" t="s">
         <v>281</v>
       </c>
@@ -5246,7 +5275,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A280" t="s">
         <v>282</v>
       </c>
@@ -5257,7 +5286,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -5268,7 +5297,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -5279,7 +5308,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -5290,7 +5319,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A284" t="s">
         <v>286</v>
       </c>
@@ -5300,8 +5329,11 @@
       <c r="C284" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="285" spans="1:3">
+      <c r="D284" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -5312,7 +5344,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A286" t="s">
         <v>288</v>
       </c>
@@ -5323,7 +5355,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A287" t="s">
         <v>289</v>
       </c>
@@ -5334,7 +5366,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A288" t="s">
         <v>290</v>
       </c>
@@ -5345,7 +5377,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A289" t="s">
         <v>291</v>
       </c>
@@ -5355,8 +5387,11 @@
       <c r="C289" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="290" spans="1:3">
+      <c r="D289" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A290" t="s">
         <v>292</v>
       </c>
@@ -5367,7 +5402,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -5378,7 +5413,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A292" t="s">
         <v>294</v>
       </c>
@@ -5389,7 +5424,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -5400,7 +5435,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -5411,7 +5446,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A295" t="s">
         <v>297</v>
       </c>
@@ -5422,7 +5457,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A296" t="s">
         <v>298</v>
       </c>
@@ -5433,7 +5468,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A297" t="s">
         <v>299</v>
       </c>
@@ -5444,7 +5479,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A298" t="s">
         <v>300</v>
       </c>
@@ -5455,7 +5490,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -5466,7 +5501,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A300" t="s">
         <v>302</v>
       </c>
@@ -5477,7 +5512,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A301" t="s">
         <v>303</v>
       </c>
@@ -5488,7 +5523,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A302" t="s">
         <v>304</v>
       </c>
@@ -5499,7 +5534,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A303" t="s">
         <v>305</v>
       </c>
@@ -5510,7 +5545,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A304" t="s">
         <v>306</v>
       </c>
@@ -5521,7 +5556,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A305" t="s">
         <v>307</v>
       </c>
@@ -5532,7 +5567,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A306" t="s">
         <v>308</v>
       </c>
@@ -5543,7 +5578,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A307" t="s">
         <v>309</v>
       </c>
@@ -5554,7 +5589,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A308" t="s">
         <v>310</v>
       </c>
@@ -5565,7 +5600,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A309" t="s">
         <v>311</v>
       </c>
@@ -5575,8 +5610,11 @@
       <c r="C309" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="310" spans="1:3">
+      <c r="D309" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A310" t="s">
         <v>312</v>
       </c>
@@ -5586,8 +5624,11 @@
       <c r="C310" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="311" spans="1:3">
+      <c r="D310" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A311" t="s">
         <v>313</v>
       </c>
@@ -5597,8 +5638,11 @@
       <c r="C311" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="312" spans="1:3">
+      <c r="D311" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A312" t="s">
         <v>314</v>
       </c>
@@ -5608,8 +5652,11 @@
       <c r="C312" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="313" spans="1:3">
+      <c r="D312" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A313" t="s">
         <v>315</v>
       </c>
@@ -5620,7 +5667,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A314" t="s">
         <v>316</v>
       </c>
@@ -5630,8 +5677,11 @@
       <c r="C314" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="315" spans="1:3">
+      <c r="D314" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A315" t="s">
         <v>317</v>
       </c>
@@ -5641,8 +5691,11 @@
       <c r="C315" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="316" spans="1:3">
+      <c r="D315" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A316" t="s">
         <v>318</v>
       </c>
@@ -5652,8 +5705,11 @@
       <c r="C316" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="317" spans="1:3">
+      <c r="D316" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A317" t="s">
         <v>319</v>
       </c>
@@ -5663,8 +5719,11 @@
       <c r="C317" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="318" spans="1:3">
+      <c r="D317" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -5675,7 +5734,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A319" t="s">
         <v>321</v>
       </c>
@@ -5686,7 +5745,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A320" t="s">
         <v>322</v>
       </c>
@@ -5697,7 +5756,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A321" t="s">
         <v>323</v>
       </c>
@@ -5708,7 +5767,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A322" t="s">
         <v>324</v>
       </c>
@@ -5719,7 +5778,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A323" t="s">
         <v>325</v>
       </c>
@@ -5730,7 +5789,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A324" t="s">
         <v>326</v>
       </c>
@@ -5741,7 +5800,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A325" t="s">
         <v>327</v>
       </c>
@@ -5752,7 +5811,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A326" t="s">
         <v>328</v>
       </c>
@@ -5763,7 +5822,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A327" t="s">
         <v>329</v>
       </c>
@@ -5774,7 +5833,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A328" t="s">
         <v>330</v>
       </c>
@@ -5785,7 +5844,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A329" t="s">
         <v>331</v>
       </c>
@@ -5796,7 +5855,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A330" t="s">
         <v>332</v>
       </c>
@@ -5807,7 +5866,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A331" t="s">
         <v>333</v>
       </c>
@@ -5818,7 +5877,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A332" t="s">
         <v>334</v>
       </c>
@@ -5829,7 +5888,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A333" t="s">
         <v>335</v>
       </c>
@@ -5840,7 +5899,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A334" t="s">
         <v>336</v>
       </c>
@@ -5851,7 +5910,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A335" t="s">
         <v>337</v>
       </c>
@@ -5862,7 +5921,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A336" t="s">
         <v>338</v>
       </c>
@@ -5873,7 +5932,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A337" t="s">
         <v>339</v>
       </c>
@@ -5884,7 +5943,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A338" t="s">
         <v>340</v>
       </c>
@@ -5895,7 +5954,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A339" t="s">
         <v>341</v>
       </c>
@@ -5906,7 +5965,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A340" t="s">
         <v>342</v>
       </c>
@@ -5917,7 +5976,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A341" t="s">
         <v>343</v>
       </c>
@@ -5928,7 +5987,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A342" t="s">
         <v>344</v>
       </c>
@@ -5939,7 +5998,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A343" t="s">
         <v>345</v>
       </c>
@@ -5950,7 +6009,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A344" t="s">
         <v>346</v>
       </c>
@@ -5961,7 +6020,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A345" t="s">
         <v>347</v>
       </c>
@@ -5972,7 +6031,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A346" t="s">
         <v>348</v>
       </c>
@@ -5983,7 +6042,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A347" t="s">
         <v>349</v>
       </c>
@@ -5994,7 +6053,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A348" t="s">
         <v>350</v>
       </c>
@@ -6005,7 +6064,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A349" t="s">
         <v>351</v>
       </c>
@@ -6016,7 +6075,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A350" t="s">
         <v>352</v>
       </c>
@@ -6027,7 +6086,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A351" t="s">
         <v>353</v>
       </c>
@@ -6038,7 +6097,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A352" t="s">
         <v>354</v>
       </c>
@@ -6049,7 +6108,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A353" t="s">
         <v>355</v>
       </c>
@@ -6060,7 +6119,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A354" t="s">
         <v>356</v>
       </c>
@@ -6071,7 +6130,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A355" t="s">
         <v>357</v>
       </c>
@@ -6082,7 +6141,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A356" t="s">
         <v>358</v>
       </c>
@@ -6093,7 +6152,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A357" t="s">
         <v>359</v>
       </c>
@@ -6104,7 +6163,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A358" t="s">
         <v>360</v>
       </c>
@@ -6115,7 +6174,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A359" t="s">
         <v>361</v>
       </c>
@@ -6126,7 +6185,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A360" t="s">
         <v>362</v>
       </c>
@@ -6137,7 +6196,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A361" t="s">
         <v>363</v>
       </c>
@@ -6148,7 +6207,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A362" t="s">
         <v>364</v>
       </c>
@@ -6159,7 +6218,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A363" t="s">
         <v>365</v>
       </c>
@@ -6170,7 +6229,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A364" t="s">
         <v>366</v>
       </c>
@@ -6181,7 +6240,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A365" t="s">
         <v>367</v>
       </c>
@@ -6192,7 +6251,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A366" t="s">
         <v>368</v>
       </c>
@@ -6203,7 +6262,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A367" t="s">
         <v>369</v>
       </c>
@@ -6214,7 +6273,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A368" t="s">
         <v>370</v>
       </c>
@@ -6225,7 +6284,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A369" t="s">
         <v>371</v>
       </c>
@@ -6236,7 +6295,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A370" t="s">
         <v>372</v>
       </c>
@@ -6247,7 +6306,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A371" t="s">
         <v>373</v>
       </c>
@@ -6258,7 +6317,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A372" t="s">
         <v>374</v>
       </c>
@@ -6269,7 +6328,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A373" t="s">
         <v>375</v>
       </c>
@@ -6280,7 +6339,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A374" t="s">
         <v>376</v>
       </c>
@@ -6291,7 +6350,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A375" t="s">
         <v>377</v>
       </c>
@@ -6302,7 +6361,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A376" t="s">
         <v>378</v>
       </c>
@@ -6313,7 +6372,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A377" t="s">
         <v>379</v>
       </c>
@@ -6324,7 +6383,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A378" t="s">
         <v>380</v>
       </c>
@@ -6335,7 +6394,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A379" t="s">
         <v>381</v>
       </c>
@@ -6346,7 +6405,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A380" t="s">
         <v>382</v>
       </c>
@@ -6357,7 +6416,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A381" t="s">
         <v>383</v>
       </c>
@@ -6368,7 +6427,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A382" t="s">
         <v>384</v>
       </c>
@@ -6379,7 +6438,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A383" t="s">
         <v>385</v>
       </c>
@@ -6390,7 +6449,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A384" t="s">
         <v>386</v>
       </c>
@@ -6401,7 +6460,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A385" t="s">
         <v>387</v>
       </c>
@@ -6412,7 +6471,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A386" t="s">
         <v>388</v>
       </c>
@@ -6423,7 +6482,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A387" t="s">
         <v>389</v>
       </c>
@@ -6435,6 +6494,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/教會財產盤點_依空間整理.xlsx
+++ b/教會財產盤點_依空間整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Dropbox\信仰\資訊股業務\教會財產盤點\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE9AEF34-F697-4554-8AE5-01D2373088E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8413B91E-564D-457D-A8F2-2330CE597AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1789,7 +1789,7 @@
     <t>0387</t>
   </si>
   <si>
-    <t>PX WTR-6000 無限投影系統  (發射與接收器)</t>
+    <t>PX WTR-6000 無線投影系統  (發射與接收器)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2165,7 +2165,7 @@
   <dimension ref="A1:D388"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="B314" sqref="B314"/>
+      <selection activeCell="B313" sqref="B313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.7"/>
